--- a/仕様書/キャラ/殺人鬼.xlsx
+++ b/仕様書/キャラ/殺人鬼.xlsx
@@ -43,7 +43,10 @@
       </rPr>
       <t>はなしで、左の鎧を真似して描いてください。
 胸の部分だけは下の画像を参考する
-靴は拍車が付きます
+上半身の横幅は一般人より太くする
+靴は右の画像ように拍車が付きます
+ポーズは警備員の設定図を参考に、
+片手が上げているような姿勢で描く
 　　　　　　　　　　　　　　　　　</t>
     </r>
     <rPh sb="6" eb="8">
@@ -61,29 +64,77 @@
     <rPh sb="21" eb="22">
       <t>エガ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="30" eb="31">
       <t>ムネ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="32" eb="34">
       <t>ブブン</t>
     </rPh>
-    <rPh sb="38" eb="39">
+    <rPh sb="37" eb="38">
       <t>シタ</t>
     </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="39" eb="41">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="42" eb="44">
       <t>サンコウ</t>
     </rPh>
-    <rPh sb="48" eb="49">
+    <rPh sb="47" eb="50">
+      <t>ジョウハンシン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨコハバ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
       <t>クツ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="66" eb="67">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
       <t>ハクシャ</t>
     </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="76" eb="77">
       <t>ツ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ケイビイン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,7 +198,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +652,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -619,8 +670,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8439150" y="2724150"/>
-          <a:ext cx="6562725" cy="3638550"/>
+          <a:off x="9058275" y="2162175"/>
+          <a:ext cx="5943600" cy="4200525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -912,18 +963,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H4:N13"/>
+  <dimension ref="H2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="8:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H4" s="1" t="s">
+    <row r="2" spans="8:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="8:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="8:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -985,7 +1054,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1012,9 +1081,18 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.4">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H4:N13"/>
+    <mergeCell ref="H2:N14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/キャラ/殺人鬼.xlsx
+++ b/仕様書/キャラ/殺人鬼.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>殺人鬼の三面図を制作する</t>
     <rPh sb="0" eb="3">
@@ -41,32 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプル①を参考し、鎧をデザインする</t>
-    <rPh sb="6" eb="8">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨロイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胸部分の鎧だけ、サンプル②を参考し</t>
-    <rPh sb="0" eb="1">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨロイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>胸が一枚鋼で、真ん中に宝石が付く</t>
     <rPh sb="0" eb="1">
       <t>ムネ</t>
@@ -88,40 +62,11 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宝石の大きさはサンプル②より三倍大きくしてください</t>
-    <rPh sb="0" eb="2">
-      <t>ホウセキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンバイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>上半身の横幅は一般人より太くする</t>
-  </si>
-  <si>
-    <t>靴はサンプル③のように、拍車が付く</t>
-    <rPh sb="0" eb="1">
-      <t>クツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハクシャ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ポーズは警備員の設定図を参考に、</t>
@@ -131,12 +76,135 @@
     <t>片手が上げているような姿勢で描く</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>配色は基本黒で、</t>
+    <rPh sb="0" eb="2">
+      <t>ハイショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>色はサンプルと違って、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤色</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で描く</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル１を参考し、鎧をデザインする</t>
+    <rPh sb="6" eb="8">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胸部分の鎧だけ、サンプル２を参考し</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨロイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝石の大きさはサンプル２より三倍大きくしてください</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンバイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靴はサンプル３のように、拍車が付く</t>
+    <rPh sb="0" eb="1">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハクシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル４のように鎧に模様を追加する</t>
+    <rPh sb="9" eb="10">
+      <t>ヨロイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +231,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -218,14 +295,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -234,7 +311,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="542925"/>
+          <a:off x="0" y="238125"/>
           <a:ext cx="4448175" cy="7305675"/>
           <a:chOff x="0" y="257175"/>
           <a:chExt cx="4448175" cy="7305675"/>
@@ -447,7 +524,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>サンプル①</a:t>
+              <a:t>サンプル１</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -457,16 +534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -475,7 +552,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4619625" y="6086475"/>
+          <a:off x="0" y="8172450"/>
           <a:ext cx="4914901" cy="4352925"/>
           <a:chOff x="9524" y="8201025"/>
           <a:chExt cx="4914901" cy="4352925"/>
@@ -598,7 +675,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>サンプル②</a:t>
+              <a:t>サンプル２</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
           </a:p>
@@ -609,16 +686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>572414</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>153314</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -627,7 +704,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11087099" y="238125"/>
+          <a:off x="10667999" y="228600"/>
           <a:ext cx="5944515" cy="7924800"/>
           <a:chOff x="11696699" y="4038600"/>
           <a:chExt cx="5944515" cy="7924800"/>
@@ -751,7 +828,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-              <a:t>サンプル③</a:t>
+              <a:t>サンプル３</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -759,113 +836,220 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>8404</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="752475" y="11049000"/>
+          <a:off x="5438775" y="11753850"/>
           <a:ext cx="10058400" cy="7114054"/>
+          <a:chOff x="457200" y="14277975"/>
+          <a:chExt cx="10058400" cy="7114054"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="図 21"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="457200" y="14277975"/>
+            <a:ext cx="10058400" cy="7114054"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590549" y="14458950"/>
+            <a:ext cx="2028825" cy="521425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>警備員の設定図</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>83275</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="752474" y="11049000"/>
-          <a:ext cx="2028825" cy="521425"/>
+          <a:off x="5800725" y="8315325"/>
+          <a:ext cx="5334000" cy="3429000"/>
+          <a:chOff x="5895975" y="8934450"/>
+          <a:chExt cx="5334000" cy="3429000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5895975" y="9353550"/>
+            <a:ext cx="5334000" cy="3009900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6353175" y="8934450"/>
+            <a:ext cx="1467068" cy="521425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>警備員の設定図</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>サンプル４</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1134,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H3:Y21"/>
+  <dimension ref="G3:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1336,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1160,9 +1344,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H5" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1170,7 +1354,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1364,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1188,9 +1372,9 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="8:25" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1198,9 +1382,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="9" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1215,9 +1399,9 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="10" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1232,9 +1416,9 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="11" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1249,7 +1433,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="12" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1264,9 +1448,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="13" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1281,7 +1465,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="14" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1296,9 +1480,9 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="15" spans="7:25" ht="33" x14ac:dyDescent="0.5">
       <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1313,9 +1497,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="8:25" ht="33" x14ac:dyDescent="0.5">
+    <row r="16" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1330,7 +1515,8 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="8:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1345,7 +1531,16 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="8:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -1354,7 +1549,16 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="8:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1363,7 +1567,16 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="8:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1372,7 +1585,14 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="8:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:25" ht="33" x14ac:dyDescent="0.5">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1381,6 +1601,42 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
+    <row r="22" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="7:25" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
